--- a/biology/Médecine/Syndrome_tonique_du_muscle_tenseur_du_tympan/Syndrome_tonique_du_muscle_tenseur_du_tympan.xlsx
+++ b/biology/Médecine/Syndrome_tonique_du_muscle_tenseur_du_tympan/Syndrome_tonique_du_muscle_tenseur_du_tympan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,9 +518,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit par Klochoff et all en 1971[1], Le syndrome tonique du muscle tenseur du tympan est une pathologie encore peu connue dans le monde médical. Il s'agit d'une diminution du seuil de contraction du muscle tenseur du tympan. Cette hyper contraction (ou spasmes) entraîne des otalgies chroniques et en particulier dans le cas de l'hyperacousie[2] et du syndrome du choc acoustique[3],[4]. Son étude ouvre un champ de compréhension important de la douleur associée à des troubles de l'audition[5],[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit par Klochoff et all en 1971, Le syndrome tonique du muscle tenseur du tympan est une pathologie encore peu connue dans le monde médical. Il s'agit d'une diminution du seuil de contraction du muscle tenseur du tympan. Cette hyper contraction (ou spasmes) entraîne des otalgies chroniques et en particulier dans le cas de l'hyperacousie et du syndrome du choc acoustique,. Son étude ouvre un champ de compréhension important de la douleur associée à des troubles de l'audition,. 
 </t>
         </is>
       </c>
@@ -537,10 +551,12 @@
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klockhoff et Westerberg ont étudié les symptômes de cette pathologie chronique[1]. 
-Ils ont montré qu’une tension psychique élevée semble être le facteur étiologique essentiel[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klockhoff et Westerberg ont étudié les symptômes de cette pathologie chronique. 
+Ils ont montré qu’une tension psychique élevée semble être le facteur étiologique essentiel.
 </t>
         </is>
       </c>
@@ -569,12 +585,14 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Relaxation[7]
-Anxiolytique[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Relaxation
+Anxiolytique
 Flunarizine
-Chirurgie[8]</t>
+Chirurgie</t>
         </is>
       </c>
     </row>
